--- a/public/import/daily_template Frontliner.xlsx
+++ b/public/import/daily_template Frontliner.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <t>Wajib menginformasikan jumlah coin yang ada di struk dan menawarkan redeem coin</t>
   </si>
   <si>
-    <t>2022-06-13</t>
+    <t>2022-08-31</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,11 +206,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -220,6 +233,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +570,7 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -566,7 +581,7 @@
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -577,7 +592,7 @@
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -588,7 +603,7 @@
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -599,7 +614,7 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -610,7 +625,7 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -621,7 +636,7 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -632,7 +647,7 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -643,7 +658,7 @@
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -654,7 +669,7 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -665,7 +680,7 @@
       <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -674,7 +689,7 @@
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -683,7 +698,7 @@
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -692,7 +707,7 @@
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -701,7 +716,7 @@
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -710,7 +725,7 @@
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -719,7 +734,7 @@
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -728,7 +743,7 @@
       <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -737,7 +752,7 @@
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -746,7 +761,7 @@
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -755,7 +770,7 @@
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -764,7 +779,6 @@
       <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
